--- a/src/analysis_examples/circadb/results_jtk/cosinor_10343572_nan_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10343572_nan_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1914329759671105, 0.3116061977687091]</t>
+          <t>[0.1919624321113375, 0.3110767416244821]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.071298998984616e-08</v>
+        <v>1.787214332082954e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.071298998984616e-08</v>
+        <v>1.787214332082954e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.0503157982556921</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.41808925214067894, 0.49791927115665735]</t>
+          <t>[0.418081841848019, 0.4979266814493173]</t>
         </is>
       </c>
       <c r="U2" t="n">
